--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>ru</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,10 +405,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>762832075</v>
+        <v>1061361318</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -413,12 +416,45 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1061361318</v>
+        <v>762832075</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>715272328</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>762832075</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1455408286</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>ru</t>
-  </si>
-  <si>
-    <t>en</t>
   </si>
 </sst>
 </file>
@@ -386,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +402,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1061361318</v>
@@ -416,45 +413,12 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>762832075</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>715272328</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>762832075</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1455408286</v>
-      </c>
-      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
